--- a/biology/Médecine/Institut_Pasteur_de_Shanghai/Institut_Pasteur_de_Shanghai.xlsx
+++ b/biology/Médecine/Institut_Pasteur_de_Shanghai/Institut_Pasteur_de_Shanghai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Institut Pasteur de Shanghaï de l'Académie chinoise des Sciences est une institution de recherche créée conjointement par l'Académie chinoise des sciences de Shanghaï et l'Institut Pasteur de France. Il a été fondé en 2004[1] et est situé dans le district de Xuhui, à Shanghai, en Chine. Il est engagé dans la recherche médicale sur les principales maladies infectieuses[2], dont sur la COVID-19 et l'immunité face au SARS-CoV-2 responsable de la pandémie de COVID-19 en 2019-2020.
-Il est dirigé en commun par l’Institut Pasteur et de l’Académie de Sciences de Chine. Cependant, des désaccords sur la gouvernance ont abouti à la fin des activités communes le 8 mars 2023[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Institut Pasteur de Shanghaï de l'Académie chinoise des Sciences est une institution de recherche créée conjointement par l'Académie chinoise des sciences de Shanghaï et l'Institut Pasteur de France. Il a été fondé en 2004 et est situé dans le district de Xuhui, à Shanghai, en Chine. Il est engagé dans la recherche médicale sur les principales maladies infectieuses, dont sur la COVID-19 et l'immunité face au SARS-CoV-2 responsable de la pandémie de COVID-19 en 2019-2020.
+Il est dirigé en commun par l’Institut Pasteur et de l’Académie de Sciences de Chine. Cependant, des désaccords sur la gouvernance ont abouti à la fin des activités communes le 8 mars 2023.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Instituts de recherche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Laboratoire clé de virologie moléculaire et d'immunologie, Académie chinoise des sciences
 Centre de diagnostic des agents pathogènes
